--- a/HT36C/Table7.xlsx
+++ b/HT36C/Table7.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="55">
   <si>
     <t>mCold</t>
   </si>
@@ -162,6 +162,24 @@
   </si>
   <si>
     <t>7.235</t>
+  </si>
+  <si>
+    <t>1091</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>710.4</t>
+  </si>
+  <si>
+    <t>583.9</t>
+  </si>
+  <si>
+    <t>13.75</t>
+  </si>
+  <si>
+    <t>5.193</t>
   </si>
 </sst>
 </file>
@@ -182,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -192,14 +210,26 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,162 +262,162 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>47</v>
+      <c r="P2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>48</v>
+      <c r="P3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
